--- a/output/missing-values-payRent.xlsx
+++ b/output/missing-values-payRent.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="902">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">TSH0018</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0019</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0020</t>
   </si>
   <si>
@@ -101,6 +104,12 @@
     <t xml:space="preserve">TSH0043</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0073</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0080</t>
   </si>
   <si>
@@ -134,6 +143,18 @@
     <t xml:space="preserve">TSH0204</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0297</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0321</t>
   </si>
   <si>
@@ -146,6 +167,9 @@
     <t xml:space="preserve">TSH0348</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0353</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0367</t>
   </si>
   <si>
@@ -248,6 +272,9 @@
     <t xml:space="preserve">TSH0673</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0697</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0726</t>
   </si>
   <si>
@@ -314,6 +341,9 @@
     <t xml:space="preserve">TSH0791</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0792</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0793</t>
   </si>
   <si>
@@ -326,6 +356,9 @@
     <t xml:space="preserve">TSH0796</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0797</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0798</t>
   </si>
   <si>
@@ -392,6 +425,9 @@
     <t xml:space="preserve">TSH0823</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0824</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0825</t>
   </si>
   <si>
@@ -512,6 +548,9 @@
     <t xml:space="preserve">TSH0873</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0874</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0875</t>
   </si>
   <si>
@@ -659,6 +698,9 @@
     <t xml:space="preserve">TSH0932</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0933</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0935</t>
   </si>
   <si>
@@ -674,6 +716,9 @@
     <t xml:space="preserve">TSH0940</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH0942</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH0943</t>
   </si>
   <si>
@@ -1649,6 +1694,9 @@
     <t xml:space="preserve">TSH1338</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1339</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1340</t>
   </si>
   <si>
@@ -1943,6 +1991,9 @@
     <t xml:space="preserve">TSH1450</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1452</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1454</t>
   </si>
   <si>
@@ -2303,6 +2354,12 @@
     <t xml:space="preserve">TSH1604</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1607</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1613</t>
   </si>
   <si>
@@ -2315,6 +2372,9 @@
     <t xml:space="preserve">TSH1618</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1619</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1620</t>
   </si>
   <si>
@@ -2384,12 +2444,42 @@
     <t xml:space="preserve">TSH1658</t>
   </si>
   <si>
-    <t xml:space="preserve">TSH1710</t>
+    <t xml:space="preserve">TSH1663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1711</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1715</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1755</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1773</t>
   </si>
   <si>
@@ -2408,6 +2498,9 @@
     <t xml:space="preserve">TSH1787</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1788</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1795</t>
   </si>
   <si>
@@ -2417,6 +2510,9 @@
     <t xml:space="preserve">TSH1804</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1805</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1806</t>
   </si>
   <si>
@@ -2426,10 +2522,25 @@
     <t xml:space="preserve">TSH1812</t>
   </si>
   <si>
-    <t xml:space="preserve">TSH1820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSH1822</t>
+    <t xml:space="preserve">TSH1818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1835</t>
   </si>
   <si>
     <t xml:space="preserve">TSH1838</t>
@@ -2450,6 +2561,21 @@
     <t xml:space="preserve">TSH1848</t>
   </si>
   <si>
+    <t xml:space="preserve">TSH1850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1898</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSH1900</t>
   </si>
   <si>
@@ -2514,6 +2640,84 @@
   </si>
   <si>
     <t xml:space="preserve">TSH1928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1965</t>
   </si>
 </sst>
 </file>
@@ -3011,7 +3215,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28"/>
     </row>
@@ -3035,7 +3239,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32"/>
     </row>
@@ -3047,7 +3251,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34"/>
     </row>
@@ -5981,91 +6185,91 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B523"/>
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B524"/>
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B525"/>
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B526"/>
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B527"/>
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B528"/>
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B529"/>
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B530"/>
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B531"/>
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B532"/>
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B533"/>
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B534"/>
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B535"/>
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B536"/>
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B537"/>
     </row>
@@ -6521,97 +6725,97 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B613"/>
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B614"/>
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B615"/>
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B616"/>
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B617"/>
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B618"/>
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B619"/>
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B620"/>
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B621"/>
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B622"/>
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B623"/>
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B624"/>
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B625"/>
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B626"/>
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B627"/>
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B628"/>
     </row>
@@ -6833,163 +7037,163 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B665"/>
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B666"/>
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B667"/>
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B668"/>
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B669"/>
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B670"/>
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B671"/>
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B672"/>
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B673"/>
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B674"/>
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B675"/>
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B676"/>
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B677"/>
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B678"/>
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B679"/>
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B680"/>
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B681"/>
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B682"/>
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B683"/>
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B684"/>
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B685"/>
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B686"/>
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B687"/>
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B688"/>
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B689"/>
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B690"/>
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B691"/>
     </row>
@@ -7061,103 +7265,103 @@
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B703"/>
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B704"/>
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B705"/>
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B706"/>
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B707"/>
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B708"/>
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B709"/>
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B710"/>
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B711"/>
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B712"/>
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B713"/>
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B714"/>
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B715"/>
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B716"/>
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B717"/>
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B718"/>
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B719"/>
     </row>
@@ -7301,103 +7505,103 @@
     </row>
     <row r="743">
       <c r="A743" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B743"/>
     </row>
     <row r="744">
       <c r="A744" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B744"/>
     </row>
     <row r="745">
       <c r="A745" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B745"/>
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B746"/>
     </row>
     <row r="747">
       <c r="A747" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B747"/>
     </row>
     <row r="748">
       <c r="A748" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B748"/>
     </row>
     <row r="749">
       <c r="A749" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B749"/>
     </row>
     <row r="750">
       <c r="A750" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B750"/>
     </row>
     <row r="751">
       <c r="A751" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B751"/>
     </row>
     <row r="752">
       <c r="A752" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B752"/>
     </row>
     <row r="753">
       <c r="A753" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B753"/>
     </row>
     <row r="754">
       <c r="A754" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B754"/>
     </row>
     <row r="755">
       <c r="A755" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B755"/>
     </row>
     <row r="756">
       <c r="A756" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B756"/>
     </row>
     <row r="757">
       <c r="A757" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B757"/>
     </row>
     <row r="758">
       <c r="A758" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B758"/>
     </row>
     <row r="759">
       <c r="A759" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B759"/>
     </row>
@@ -7934,6 +8138,414 @@
         <v>833</v>
       </c>
       <c r="B848"/>
+    </row>
+    <row r="849">
+      <c r="A849" t="s">
+        <v>834</v>
+      </c>
+      <c r="B849"/>
+    </row>
+    <row r="850">
+      <c r="A850" t="s">
+        <v>835</v>
+      </c>
+      <c r="B850"/>
+    </row>
+    <row r="851">
+      <c r="A851" t="s">
+        <v>836</v>
+      </c>
+      <c r="B851"/>
+    </row>
+    <row r="852">
+      <c r="A852" t="s">
+        <v>837</v>
+      </c>
+      <c r="B852"/>
+    </row>
+    <row r="853">
+      <c r="A853" t="s">
+        <v>838</v>
+      </c>
+      <c r="B853"/>
+    </row>
+    <row r="854">
+      <c r="A854" t="s">
+        <v>839</v>
+      </c>
+      <c r="B854"/>
+    </row>
+    <row r="855">
+      <c r="A855" t="s">
+        <v>840</v>
+      </c>
+      <c r="B855"/>
+    </row>
+    <row r="856">
+      <c r="A856" t="s">
+        <v>841</v>
+      </c>
+      <c r="B856"/>
+    </row>
+    <row r="857">
+      <c r="A857" t="s">
+        <v>842</v>
+      </c>
+      <c r="B857"/>
+    </row>
+    <row r="858">
+      <c r="A858" t="s">
+        <v>843</v>
+      </c>
+      <c r="B858"/>
+    </row>
+    <row r="859">
+      <c r="A859" t="s">
+        <v>844</v>
+      </c>
+      <c r="B859"/>
+    </row>
+    <row r="860">
+      <c r="A860" t="s">
+        <v>845</v>
+      </c>
+      <c r="B860"/>
+    </row>
+    <row r="861">
+      <c r="A861" t="s">
+        <v>846</v>
+      </c>
+      <c r="B861"/>
+    </row>
+    <row r="862">
+      <c r="A862" t="s">
+        <v>847</v>
+      </c>
+      <c r="B862"/>
+    </row>
+    <row r="863">
+      <c r="A863" t="s">
+        <v>848</v>
+      </c>
+      <c r="B863"/>
+    </row>
+    <row r="864">
+      <c r="A864" t="s">
+        <v>849</v>
+      </c>
+      <c r="B864"/>
+    </row>
+    <row r="865">
+      <c r="A865" t="s">
+        <v>850</v>
+      </c>
+      <c r="B865"/>
+    </row>
+    <row r="866">
+      <c r="A866" t="s">
+        <v>851</v>
+      </c>
+      <c r="B866"/>
+    </row>
+    <row r="867">
+      <c r="A867" t="s">
+        <v>852</v>
+      </c>
+      <c r="B867"/>
+    </row>
+    <row r="868">
+      <c r="A868" t="s">
+        <v>853</v>
+      </c>
+      <c r="B868"/>
+    </row>
+    <row r="869">
+      <c r="A869" t="s">
+        <v>854</v>
+      </c>
+      <c r="B869"/>
+    </row>
+    <row r="870">
+      <c r="A870" t="s">
+        <v>855</v>
+      </c>
+      <c r="B870"/>
+    </row>
+    <row r="871">
+      <c r="A871" t="s">
+        <v>856</v>
+      </c>
+      <c r="B871"/>
+    </row>
+    <row r="872">
+      <c r="A872" t="s">
+        <v>857</v>
+      </c>
+      <c r="B872"/>
+    </row>
+    <row r="873">
+      <c r="A873" t="s">
+        <v>858</v>
+      </c>
+      <c r="B873"/>
+    </row>
+    <row r="874">
+      <c r="A874" t="s">
+        <v>859</v>
+      </c>
+      <c r="B874"/>
+    </row>
+    <row r="875">
+      <c r="A875" t="s">
+        <v>860</v>
+      </c>
+      <c r="B875"/>
+    </row>
+    <row r="876">
+      <c r="A876" t="s">
+        <v>861</v>
+      </c>
+      <c r="B876"/>
+    </row>
+    <row r="877">
+      <c r="A877" t="s">
+        <v>862</v>
+      </c>
+      <c r="B877"/>
+    </row>
+    <row r="878">
+      <c r="A878" t="s">
+        <v>863</v>
+      </c>
+      <c r="B878"/>
+    </row>
+    <row r="879">
+      <c r="A879" t="s">
+        <v>864</v>
+      </c>
+      <c r="B879"/>
+    </row>
+    <row r="880">
+      <c r="A880" t="s">
+        <v>865</v>
+      </c>
+      <c r="B880"/>
+    </row>
+    <row r="881">
+      <c r="A881" t="s">
+        <v>866</v>
+      </c>
+      <c r="B881"/>
+    </row>
+    <row r="882">
+      <c r="A882" t="s">
+        <v>867</v>
+      </c>
+      <c r="B882"/>
+    </row>
+    <row r="883">
+      <c r="A883" t="s">
+        <v>868</v>
+      </c>
+      <c r="B883"/>
+    </row>
+    <row r="884">
+      <c r="A884" t="s">
+        <v>869</v>
+      </c>
+      <c r="B884"/>
+    </row>
+    <row r="885">
+      <c r="A885" t="s">
+        <v>870</v>
+      </c>
+      <c r="B885"/>
+    </row>
+    <row r="886">
+      <c r="A886" t="s">
+        <v>871</v>
+      </c>
+      <c r="B886"/>
+    </row>
+    <row r="887">
+      <c r="A887" t="s">
+        <v>872</v>
+      </c>
+      <c r="B887"/>
+    </row>
+    <row r="888">
+      <c r="A888" t="s">
+        <v>873</v>
+      </c>
+      <c r="B888"/>
+    </row>
+    <row r="889">
+      <c r="A889" t="s">
+        <v>874</v>
+      </c>
+      <c r="B889"/>
+    </row>
+    <row r="890">
+      <c r="A890" t="s">
+        <v>875</v>
+      </c>
+      <c r="B890"/>
+    </row>
+    <row r="891">
+      <c r="A891" t="s">
+        <v>876</v>
+      </c>
+      <c r="B891"/>
+    </row>
+    <row r="892">
+      <c r="A892" t="s">
+        <v>877</v>
+      </c>
+      <c r="B892"/>
+    </row>
+    <row r="893">
+      <c r="A893" t="s">
+        <v>878</v>
+      </c>
+      <c r="B893"/>
+    </row>
+    <row r="894">
+      <c r="A894" t="s">
+        <v>879</v>
+      </c>
+      <c r="B894"/>
+    </row>
+    <row r="895">
+      <c r="A895" t="s">
+        <v>880</v>
+      </c>
+      <c r="B895"/>
+    </row>
+    <row r="896">
+      <c r="A896" t="s">
+        <v>881</v>
+      </c>
+      <c r="B896"/>
+    </row>
+    <row r="897">
+      <c r="A897" t="s">
+        <v>882</v>
+      </c>
+      <c r="B897"/>
+    </row>
+    <row r="898">
+      <c r="A898" t="s">
+        <v>883</v>
+      </c>
+      <c r="B898"/>
+    </row>
+    <row r="899">
+      <c r="A899" t="s">
+        <v>884</v>
+      </c>
+      <c r="B899"/>
+    </row>
+    <row r="900">
+      <c r="A900" t="s">
+        <v>885</v>
+      </c>
+      <c r="B900"/>
+    </row>
+    <row r="901">
+      <c r="A901" t="s">
+        <v>886</v>
+      </c>
+      <c r="B901"/>
+    </row>
+    <row r="902">
+      <c r="A902" t="s">
+        <v>887</v>
+      </c>
+      <c r="B902"/>
+    </row>
+    <row r="903">
+      <c r="A903" t="s">
+        <v>888</v>
+      </c>
+      <c r="B903"/>
+    </row>
+    <row r="904">
+      <c r="A904" t="s">
+        <v>889</v>
+      </c>
+      <c r="B904"/>
+    </row>
+    <row r="905">
+      <c r="A905" t="s">
+        <v>890</v>
+      </c>
+      <c r="B905"/>
+    </row>
+    <row r="906">
+      <c r="A906" t="s">
+        <v>891</v>
+      </c>
+      <c r="B906"/>
+    </row>
+    <row r="907">
+      <c r="A907" t="s">
+        <v>892</v>
+      </c>
+      <c r="B907"/>
+    </row>
+    <row r="908">
+      <c r="A908" t="s">
+        <v>893</v>
+      </c>
+      <c r="B908"/>
+    </row>
+    <row r="909">
+      <c r="A909" t="s">
+        <v>894</v>
+      </c>
+      <c r="B909"/>
+    </row>
+    <row r="910">
+      <c r="A910" t="s">
+        <v>895</v>
+      </c>
+      <c r="B910"/>
+    </row>
+    <row r="911">
+      <c r="A911" t="s">
+        <v>896</v>
+      </c>
+      <c r="B911"/>
+    </row>
+    <row r="912">
+      <c r="A912" t="s">
+        <v>897</v>
+      </c>
+      <c r="B912"/>
+    </row>
+    <row r="913">
+      <c r="A913" t="s">
+        <v>898</v>
+      </c>
+      <c r="B913"/>
+    </row>
+    <row r="914">
+      <c r="A914" t="s">
+        <v>899</v>
+      </c>
+      <c r="B914"/>
+    </row>
+    <row r="915">
+      <c r="A915" t="s">
+        <v>900</v>
+      </c>
+      <c r="B915"/>
+    </row>
+    <row r="916">
+      <c r="A916" t="s">
+        <v>901</v>
+      </c>
+      <c r="B916"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
